--- a/downloads/sample_ftp_paths_report.xlsx
+++ b/downloads/sample_ftp_paths_report.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,10 +444,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
     <col width="100" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="100" customWidth="1" min="5" max="5"/>
+    <col width="43" customWidth="1" min="4" max="4"/>
+    <col width="64" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -483,22 +483,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bootcode</t>
+          <t>dprx_quickshow</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>/DailyBuild/PrebuildFW/bootcode/RDDB-942_realtek_merlin8_premp.google-refplus/2025_06_24-18_16_9624861</t>
+          <t>/DailyBuild/PrebuildFW/dprx_quickshow/RDDB-1204_merlin8_quickshow_premp.google-refplus.upgrade-11.rtd2885p/20250722_2344_f053054</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>bootcode/RDDB-942-premp</t>
+          <t>PrebuildFW/dprx_quickshow/RDDB-1204-premp</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>manifest.xml, Version.txt</t>
+          <t>F_Version.txt, manifest.xml, Version.txt</t>
         </is>
       </c>
     </row>
@@ -508,22 +508,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>emcu</t>
+          <t>dprx_quickshow</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/DailyBuild/PrebuildFW/emcu/RDDB-1193_merlin8_android-14_premp.google-refplus/2025_06_24-17_41_e54f7a5</t>
+          <t>/DailyBuild/PrebuildFW/dprx_quickshow/RDDB-300_merlin8_quickshow/2025_01_27-12_53_c216918</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>emcu/RDDB-1193-premp</t>
+          <t>PrebuildFW/dprx_quickshow/RDDB-300</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>manifest.xml (tv001/manifest.xml), Version.txt (tv001/Version.txt)</t>
+          <t>manifest.xml, Version.txt</t>
         </is>
       </c>
     </row>
@@ -533,22 +533,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dolby_ta</t>
+          <t>bootcode</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/DailyBuild/PrebuildFW/dolby_ta/RDDB-932_mac7p_v3.0_common_android11_premp.google-refplus.upgrade-11.rtd2851a/2025_06_18-15_30_e05abe4</t>
+          <t>/DailyBuild/PrebuildFW/bootcode/RDDB-1046_realtek_merlin9_premp.google-refplus/20250723_1834_d875865</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>dolby_ta/RDDB-932-premp</t>
+          <t>PrebuildFW/bootcode/RDDB-1046-premp</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>manifest.xml, Version.txt</t>
+          <t>F_Version.txt, manifest.xml, Version.txt</t>
         </is>
       </c>
     </row>
@@ -558,22 +558,72 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ufsd_ko</t>
+          <t>bootcode</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/DailyBuild/PrebuildFW/ufsd_ko/RDDB-982_mac8q_android11_premp.google-refplus.upgrade-11/20250717_1455_618e9e1</t>
+          <t>/DailyBuild/PrebuildFW/bootcode/RDDB-531_realtek_merlin9_master/20250725_1800_5fadb5f</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ufsd_ko/RDDB-982-premp</t>
+          <t>PrebuildFW/bootcode/RDDB-531</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>F_Version.txt, manifest.xml (ufsd_54_prebuilt/android.11.rtd2851f_dv.tv001_defconfig/manifest.xml), Version.txt (ufsd_54_prebuilt/android.11.rtd2851f_dv.tv001_defconfig/Version.txt)</t>
+          <t>F_Version.txt, manifest.xml, Version.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Merlin7</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>/DailyBuild/Merlin7/DB2857_Merlin7_32Bit_FW_Android14_Ref_Plus_PreMP_GoogleGMS/69_202507292300</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DailyBuild/Merlin7/DB2857</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>manifest.xml (manifest_69.xml), Version.txt (Version_69.txt)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merlin7</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>/DailyBuild/Merlin7/DB2302_Merlin7_32Bit_FW_Android14_Ref_Plus_GoogleGMS/534_all_202507292300</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DailyBuild/Merlin7/DB2302</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>manifest.xml (manifest_534.xml), Version.txt (Version_534.txt)</t>
         </is>
       </c>
     </row>

--- a/downloads/sample_ftp_paths_report.xlsx
+++ b/downloads/sample_ftp_paths_report.xlsx
@@ -593,7 +593,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DailyBuild/Merlin7/DB2857</t>
+          <t>DailyBuild/Merlin7/DB2857-premp</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
